--- a/main.xlsx
+++ b/main.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1z3r\OneDrive\Рабочий стол\учеба\анки\excel-sql-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C178ED22-CD43-4941-B2D3-3B7607EE8C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DF3673-5532-447D-8266-DCCC65E64A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80E8A864-518A-4B34-9823-921E44706ED2}"/>
   </bookViews>
   <sheets>
-    <sheet name="main list" sheetId="5" r:id="rId1"/>
+    <sheet name="main list (2)" sheetId="6" r:id="rId1"/>
     <sheet name="promt" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
@@ -255,36 +255,6 @@
     <t>Тег</t>
   </si>
   <si>
-    <t>de::базовые_операции::сортировка</t>
-  </si>
-  <si>
-    <t>de::базовые_операции::фильтрация</t>
-  </si>
-  <si>
-    <t>de::базовые_операции::выбор_столбцов</t>
-  </si>
-  <si>
-    <t>de::базовые_операции::удаление_строк</t>
-  </si>
-  <si>
-    <t>de::базовые_операции::переименование</t>
-  </si>
-  <si>
-    <t>de::базовые_операции::агрегации</t>
-  </si>
-  <si>
-    <t>de::базовые_операции::группировка</t>
-  </si>
-  <si>
-    <t>de::базовые_операции::условная_логика</t>
-  </si>
-  <si>
-    <t>de::базовые_операции::создание_колонок</t>
-  </si>
-  <si>
-    <t>de::базовые_операции::объединение_строк</t>
-  </si>
-  <si>
     <t>«Создай зрительные образ для запоминания любого понятия — как абстрактного, так и простого.Если понятие сложное, логическое или требует точного различения — используй абсурдную, запоминающуюся ассоциацию между крупными, детальными, ярко-цветными образами. Главный образ (X) активно взаимодействует со вторым (Y) — взрывает, протыкает, поёт, сталкивается, меняет форму.Если понятие простое или предметное — создай реалистичный, но всё равно крупный, цветной и детальный образ, отражающий суть понятия или его действие. важно если можно сделать один образ то сделать его центральным большим объектом</t>
   </si>
   <si>
@@ -331,13 +301,43 @@
   </si>
   <si>
     <t>picture\lesson1\Gemini_Generated_Image_6cbp0e6cbp0e6cbp.png</t>
+  </si>
+  <si>
+    <t>de::esp::базовые_операции::сортировка</t>
+  </si>
+  <si>
+    <t>de::esp::базовые_операции::фильтрация</t>
+  </si>
+  <si>
+    <t>de::esp::базовые_операции::выбор_столбцов</t>
+  </si>
+  <si>
+    <t>de::esp::базовые_операции::удаление_строк</t>
+  </si>
+  <si>
+    <t>de::esp::базовые_операции::переименование</t>
+  </si>
+  <si>
+    <t>de::esp::базовые_операции::агрегации</t>
+  </si>
+  <si>
+    <t>de::esp::базовые_операции::группировка</t>
+  </si>
+  <si>
+    <t>de::esp::базовые_операции::условная_логика</t>
+  </si>
+  <si>
+    <t>de::esp::базовые_операции::создание_колонок</t>
+  </si>
+  <si>
+    <t>de::esp::базовые_операции::объединение_строк</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,16 +355,30 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -372,18 +386,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -718,489 +754,647 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2477BF72-43E1-4CAB-8F09-CDED9C07184E}">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FE94AB-FF7D-4C22-B9A5-DE79EDCEF66C}">
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="64.7109375" customWidth="1"/>
-    <col min="8" max="8" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="J11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="L11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H12" s="3"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="3"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H14" s="3"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H15" s="3"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="3"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{113235C6-7916-4D37-83B9-ABEBFCD8966F}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{5B3BC9AC-3E8C-4660-A088-A8AAF802E2DF}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{0DEC048B-45A2-45BC-896F-AF1B3F3F9654}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{5933A252-E8B9-4DE1-ADD8-6F08B8C17199}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{B5D6EA42-AB92-41FE-B6FB-78CAD8BD02A2}"/>
-    <hyperlink ref="H8" r:id="rId6" xr:uid="{28C5A91F-6803-471F-A1EF-7EA80C4658BD}"/>
-    <hyperlink ref="H9" r:id="rId7" xr:uid="{B6BA3E8A-BF92-4601-A766-68F9A4966B2D}"/>
-    <hyperlink ref="H10" r:id="rId8" xr:uid="{FA8E7576-3562-4FC1-9039-87A4C5069C04}"/>
-    <hyperlink ref="H11" r:id="rId9" xr:uid="{8B778103-9962-4637-A8F1-4232F1207ADD}"/>
-    <hyperlink ref="G7" r:id="rId10" xr:uid="{9D0C993A-92B6-4CAE-BEB9-B624D3C860E6}"/>
-    <hyperlink ref="G8:G11" r:id="rId11" display="picture\lesson1_ref\Снимок экрана 2025-11-15 121008.png" xr:uid="{68DF8539-306B-462D-B655-BD21FE57220F}"/>
-    <hyperlink ref="G2" r:id="rId12" xr:uid="{DF95FB16-C2B9-46D7-8421-2EDBAC954E3A}"/>
-    <hyperlink ref="G3:G6" r:id="rId13" display="picture\lesson1_ref\Снимок экрана 2025-11-15 120903.png" xr:uid="{C7C36272-A7F7-4BFF-B7C0-57D777A64C8F}"/>
-    <hyperlink ref="H2" r:id="rId14" xr:uid="{EC1AA9C8-1F4C-445A-BE70-B685C78CB52C}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{5F7CB280-2281-401B-9256-A160EB9BBBDA}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{121063C2-8A24-4A30-AC35-19993B9DCAF9}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{B3033B7A-D7FA-45E1-AF6F-B98388F74CC6}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{9F57B390-7EBD-4691-9318-9AA6EFDF7725}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{3E0B9A63-6CD9-4F12-A9D8-4F90F58A365B}"/>
+    <hyperlink ref="I8" r:id="rId6" xr:uid="{FFA4AFC6-240A-4F58-9DC4-0CF0F8BD6BD7}"/>
+    <hyperlink ref="I9" r:id="rId7" xr:uid="{1292B3C7-BF65-4154-8B0B-3FADDD2EFEED}"/>
+    <hyperlink ref="I10" r:id="rId8" xr:uid="{E5CFE0D6-EC36-4C70-9D60-67EC2EFB3FCF}"/>
+    <hyperlink ref="I11" r:id="rId9" xr:uid="{2EC13D45-0D47-4892-87F0-B1C439BE6CD5}"/>
+    <hyperlink ref="K7" r:id="rId10" xr:uid="{169C1A40-CECB-447E-AE7C-8EF10D240BD8}"/>
+    <hyperlink ref="K8:K11" r:id="rId11" display="picture\lesson1_ref\Снимок экрана 2025-11-15 121008.png" xr:uid="{23591D35-DDA0-43BD-B63D-569F704894BF}"/>
+    <hyperlink ref="K2" r:id="rId12" xr:uid="{3E0F30CC-7AF0-4192-B403-55BBB059E6A4}"/>
+    <hyperlink ref="K3:K6" r:id="rId13" display="picture\lesson1_ref\Снимок экрана 2025-11-15 120903.png" xr:uid="{71ACD3FB-E628-48F8-A8BB-44A14519C7EC}"/>
+    <hyperlink ref="I2" r:id="rId14" xr:uid="{3C010CCC-664E-4A3B-B079-A1F32A721E95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
@@ -1217,12 +1411,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="172.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="172.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>81</v>
+      <c r="A1" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
